--- a/tables/Table_1.xlsx
+++ b/tables/Table_1.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23127"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\44797\Desktop\Repo\moraine-paper-2020\tables\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA41EFC3-F081-4641-B52A-445AF3261364}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="84" windowWidth="22980" windowHeight="8484"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,33 +22,56 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="23">
-  <si>
-    <r>
-      <t xml:space="preserve">Table 1. </t>
-    </r>
-    <r>
-      <rPr>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="53">
+  <si>
+    <t>Moraine</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Isotope</t>
+  </si>
+  <si>
+    <t>Latitude (°)</t>
+  </si>
+  <si>
+    <t>Longitude (°)</t>
+  </si>
+  <si>
+    <t>Elevation (m)</t>
+  </si>
+  <si>
+    <t>Age (ka)</t>
+  </si>
+  <si>
+    <t>Internal ± (ka)</t>
+  </si>
+  <si>
+    <t>External ± (ka)</t>
+  </si>
+  <si>
+    <r>
+      <t>SH R</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="Gill Sans MT"/>
         <family val="2"/>
       </rPr>
-      <t>Summary statistics for the sampled moraines</t>
-    </r>
-  </si>
-  <si>
-    <t>Moraine</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Type </t>
-  </si>
-  <si>
-    <t># samples</t>
-  </si>
-  <si>
-    <r>
-      <t># IS</t>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Gill Sans MT"/>
+        <family val="2"/>
+      </rPr>
+      <t>± SEM</t>
     </r>
     <r>
       <rPr>
@@ -52,125 +81,301 @@
         <rFont val="Gill Sans MT"/>
         <family val="2"/>
       </rPr>
+      <t>b</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Outer Pleta Naua</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Gill Sans MT"/>
+        <family val="2"/>
+      </rPr>
+      <t>c</t>
+    </r>
+  </si>
+  <si>
+    <t>OPN01</t>
+  </si>
+  <si>
+    <r>
+      <t>10</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Gill Sans MT"/>
+        <family val="2"/>
+      </rPr>
+      <t>Be</t>
+    </r>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>OPN02</t>
+  </si>
+  <si>
+    <t>51.68 ± 0.5</t>
+  </si>
+  <si>
+    <t>OPN03</t>
+  </si>
+  <si>
+    <t>SAL-01</t>
+  </si>
+  <si>
+    <t>47.57 ± 0.83</t>
+  </si>
+  <si>
+    <t>SAL-02</t>
+  </si>
+  <si>
+    <t>45.07 ± 0.84</t>
+  </si>
+  <si>
+    <t>SAL-03</t>
+  </si>
+  <si>
+    <t>44.07 ± 0.82</t>
+  </si>
+  <si>
+    <t>SAL-04</t>
+  </si>
+  <si>
+    <t>47.57 ± 0.84</t>
+  </si>
+  <si>
+    <t>SAL-05</t>
+  </si>
+  <si>
+    <t>48.9 ± 0.77</t>
+  </si>
+  <si>
+    <t>SAL-06</t>
+  </si>
+  <si>
+    <t>44.53 ± 0.74</t>
+  </si>
+  <si>
+    <t>SAL-07</t>
+  </si>
+  <si>
+    <t>47.43 ± 0.96</t>
+  </si>
+  <si>
+    <t>SAL-08</t>
+  </si>
+  <si>
+    <t>47.7 ± 0.9</t>
+  </si>
+  <si>
+    <t>SAL-09</t>
+  </si>
+  <si>
+    <t>44.77 ± 0.8</t>
+  </si>
+  <si>
+    <t>SAL-10</t>
+  </si>
+  <si>
+    <t>43.03 ± 0.95</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PIR-11-13 </t>
+  </si>
+  <si>
+    <r>
+      <t>36</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Gill Sans MT"/>
+        <family val="2"/>
+      </rPr>
+      <t>Cl</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">PIR-11-14 </t>
+  </si>
+  <si>
+    <t>47.6 ± 0.83</t>
+  </si>
+  <si>
+    <r>
+      <t>Soum d'Ech</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Gill Sans MT"/>
+        <family val="2"/>
+      </rPr>
+      <t>e</t>
+    </r>
+  </si>
+  <si>
+    <t>ECH01</t>
+  </si>
+  <si>
+    <t>42.43 ± 0.98</t>
+  </si>
+  <si>
+    <t>ECH02</t>
+  </si>
+  <si>
+    <r>
+      <t>43.2</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Gill Sans MT"/>
+        <family val="2"/>
+      </rPr>
+      <t>f</t>
+    </r>
+  </si>
+  <si>
+    <t>ECH03</t>
+  </si>
+  <si>
+    <t>38.86 ± 1.11</t>
+  </si>
+  <si>
+    <t>ECH04</t>
+  </si>
+  <si>
+    <t>38.77 ± 1.05</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Gill Sans MT"/>
+        <family val="2"/>
+      </rPr>
       <t>a</t>
     </r>
-  </si>
-  <si>
-    <r>
-      <t># C</t>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Gill Sans MT"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> Full sample information used for exposure age calculation is provided in the Supplementary Information or is available on GitHub: https://github.com/matt-tomkins/moraine-paper-2020, </t>
     </r>
     <r>
       <rPr>
         <vertAlign val="superscript"/>
         <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Gill Sans MT"/>
-        <family val="2"/>
-      </rPr>
-      <t>a</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t># OS</t>
+        <color theme="1"/>
+        <rFont val="Gill Sans MT"/>
+        <family val="2"/>
+      </rPr>
+      <t>b</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Gill Sans MT"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> Mean of 30 SH R-values ± the Standard Error of the Mean, </t>
     </r>
     <r>
       <rPr>
         <vertAlign val="superscript"/>
         <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Gill Sans MT"/>
-        <family val="2"/>
-      </rPr>
-      <t>a</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Area (km</t>
+        <color theme="1"/>
+        <rFont val="Gill Sans MT"/>
+        <family val="2"/>
+      </rPr>
+      <t>c</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Gill Sans MT"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> OPN samples from Pallàs et al. (2006), </t>
     </r>
     <r>
       <rPr>
         <vertAlign val="superscript"/>
         <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Gill Sans MT"/>
-        <family val="2"/>
-      </rPr>
-      <t>2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Gill Sans MT"/>
-        <family val="2"/>
-      </rPr>
-      <t>)</t>
+        <color theme="1"/>
+        <rFont val="Gill Sans MT"/>
+        <family val="2"/>
+      </rPr>
+      <t>d</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Gill Sans MT"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> PIR samples from Palacios et al. (2015), </t>
     </r>
     <r>
       <rPr>
         <vertAlign val="superscript"/>
         <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Gill Sans MT"/>
-        <family val="2"/>
-      </rPr>
-      <t>b</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Patch size</t>
+        <color theme="1"/>
+        <rFont val="Gill Sans MT"/>
+        <family val="2"/>
+      </rPr>
+      <t>e</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Gill Sans MT"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> ECH samples from Rodés (2008), </t>
     </r>
     <r>
       <rPr>
         <vertAlign val="superscript"/>
         <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Gill Sans MT"/>
-        <family val="2"/>
-      </rPr>
-      <t>c</t>
-    </r>
-  </si>
-  <si>
-    <t>Tallada</t>
-  </si>
-  <si>
-    <t>Terminal</t>
-  </si>
-  <si>
-    <r>
-      <t>~15 m</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="superscript"/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Gill Sans MT"/>
-        <family val="2"/>
-      </rPr>
-      <t>2</t>
-    </r>
-  </si>
-  <si>
-    <t>Outer Pleta Naua</t>
-  </si>
-  <si>
-    <r>
-      <t>~14 m</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="superscript"/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Gill Sans MT"/>
-        <family val="2"/>
-      </rPr>
-      <t>2</t>
+        <color theme="1"/>
+        <rFont val="Gill Sans MT"/>
+        <family val="2"/>
+      </rPr>
+      <t>f</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Gill Sans MT"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> Measurement error, see Rodés (2008).  </t>
     </r>
   </si>
   <si>
@@ -184,15 +389,7 @@
         <rFont val="Gill Sans MT"/>
         <family val="2"/>
       </rPr>
-      <t>(Left)</t>
-    </r>
-  </si>
-  <si>
-    <t>Latero-frontal</t>
-  </si>
-  <si>
-    <r>
-      <t>~39 m</t>
+      <t>(Right)</t>
     </r>
     <r>
       <rPr>
@@ -202,26 +399,21 @@
         <rFont val="Gill Sans MT"/>
         <family val="2"/>
       </rPr>
-      <t>2</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Arànser </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
+      <t>d</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Table 1. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="Gill Sans MT"/>
         <family val="2"/>
       </rPr>
-      <t>(Right)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>~46 m</t>
+      <t>Summary data for terrestrial cosmogenic exposure ages from the sampled moraines</t>
     </r>
     <r>
       <rPr>
@@ -231,88 +423,15 @@
         <rFont val="Gill Sans MT"/>
         <family val="2"/>
       </rPr>
-      <t>2</t>
-    </r>
-  </si>
-  <si>
-    <t>Soum d’Ech</t>
-  </si>
-  <si>
-    <t>Laterals</t>
-  </si>
-  <si>
-    <r>
-      <t>~33 m</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="superscript"/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Gill Sans MT"/>
-        <family val="2"/>
-      </rPr>
-      <t>2</t>
-    </r>
-  </si>
-  <si>
-    <r>
       <t>a</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Gill Sans MT"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> Inner ice-proximal slope (IS), moraine crest (C) and outer ice-distal slope (OS), </t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="superscript"/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Gill Sans MT"/>
-        <family val="2"/>
-      </rPr>
-      <t>b</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Gill Sans MT"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> Sampling area, </t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="superscript"/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Gill Sans MT"/>
-        <family val="2"/>
-      </rPr>
-      <t>c</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Gill Sans MT"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> mean area per sampled boulder</t>
     </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -341,8 +460,28 @@
       <family val="2"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Gill Sans MT"/>
+      <family val="2"/>
+    </font>
+    <font>
       <sz val="8"/>
       <color rgb="FF000000"/>
+      <name val="Gill Sans MT"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Gill Sans MT"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <vertAlign val="superscript"/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Gill Sans MT"/>
       <family val="2"/>
     </font>
@@ -355,7 +494,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -372,11 +511,20 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -384,11 +532,26 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -399,6 +562,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -447,7 +613,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -480,9 +646,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -515,6 +698,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -690,207 +890,669 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:I9"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="B2:K23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K6" sqref="K6"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="6.21875" customWidth="1"/>
-    <col min="2" max="2" width="15.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.5546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.88671875" customWidth="1"/>
-    <col min="8" max="8" width="12.44140625" customWidth="1"/>
-    <col min="9" max="9" width="11" customWidth="1"/>
+    <col min="2" max="2" width="16.21875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.88671875" customWidth="1"/>
+    <col min="5" max="5" width="12.6640625" customWidth="1"/>
+    <col min="6" max="6" width="14" customWidth="1"/>
+    <col min="7" max="7" width="14.33203125" customWidth="1"/>
+    <col min="8" max="8" width="12" customWidth="1"/>
+    <col min="9" max="9" width="12.88671875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.44140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:9" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="3" t="s">
+    <row r="2" spans="2:11" ht="20.399999999999999" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B2" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="C2" s="5"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="5"/>
+      <c r="G2" s="5"/>
+      <c r="H2" s="5"/>
+      <c r="I2" s="5"/>
+      <c r="J2" s="5"/>
+      <c r="K2" s="5"/>
+    </row>
+    <row r="3" spans="2:11" ht="20.399999999999999" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B3" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
-      <c r="H2" s="3"/>
-      <c r="I2" s="3"/>
-    </row>
-    <row r="3" spans="2:9" ht="20.399999999999999" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="1" t="s">
+      <c r="C3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="D3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="E3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="F3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="G3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G3" s="1" t="s">
+      <c r="H3" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H3" s="1" t="s">
+      <c r="I3" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I3" s="1" t="s">
+      <c r="J3" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="4" spans="2:9" ht="19.8" x14ac:dyDescent="0.3">
-      <c r="B4" s="2" t="s">
+      <c r="K3" s="1" t="s">
         <v>9</v>
       </c>
+    </row>
+    <row r="4" spans="2:11" ht="19.8" x14ac:dyDescent="0.3">
+      <c r="B4" s="6" t="s">
+        <v>10</v>
+      </c>
       <c r="C4" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D4" s="2">
-        <v>70</v>
+        <v>11</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>12</v>
       </c>
       <c r="E4" s="2">
+        <v>42.636499999999998</v>
+      </c>
+      <c r="F4" s="2">
+        <v>0.7399</v>
+      </c>
+      <c r="G4" s="2">
+        <v>2217</v>
+      </c>
+      <c r="H4" s="2">
+        <v>13.2</v>
+      </c>
+      <c r="I4" s="2">
+        <v>1.3</v>
+      </c>
+      <c r="J4" s="2">
+        <v>1.6</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="2:11" ht="19.8" x14ac:dyDescent="0.3">
+      <c r="B5" s="7"/>
+      <c r="C5" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E5" s="2">
+        <v>42.636499999999998</v>
+      </c>
+      <c r="F5" s="2">
+        <v>0.74060000000000004</v>
+      </c>
+      <c r="G5" s="2">
+        <v>2197</v>
+      </c>
+      <c r="H5" s="2">
+        <v>13</v>
+      </c>
+      <c r="I5" s="2">
+        <v>1.7</v>
+      </c>
+      <c r="J5" s="2">
+        <v>2</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="2:11" ht="20.399999999999999" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B6" s="8"/>
+      <c r="C6" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="F4" s="2">
+      <c r="D6" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E6" s="1">
+        <v>42.636499999999998</v>
+      </c>
+      <c r="F6" s="1">
+        <v>0.7409</v>
+      </c>
+      <c r="G6" s="1">
+        <v>2195</v>
+      </c>
+      <c r="H6" s="1">
+        <v>12.6</v>
+      </c>
+      <c r="I6" s="1">
+        <v>1.2</v>
+      </c>
+      <c r="J6" s="1">
+        <v>1.5</v>
+      </c>
+      <c r="K6" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="2:11" ht="19.8" x14ac:dyDescent="0.3">
+      <c r="B7" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E7" s="2">
+        <v>42.4283</v>
+      </c>
+      <c r="F7" s="2">
+        <v>1.63</v>
+      </c>
+      <c r="G7" s="2">
+        <v>2000</v>
+      </c>
+      <c r="H7" s="2">
+        <v>17.600000000000001</v>
+      </c>
+      <c r="I7" s="2">
+        <v>0.6</v>
+      </c>
+      <c r="J7" s="2">
+        <v>1.5</v>
+      </c>
+      <c r="K7" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="8" spans="2:11" ht="19.8" x14ac:dyDescent="0.3">
+      <c r="B8" s="7"/>
+      <c r="C8" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E8" s="2">
+        <v>42.427300000000002</v>
+      </c>
+      <c r="F8" s="2">
+        <v>1.6321000000000001</v>
+      </c>
+      <c r="G8" s="2">
+        <v>1983</v>
+      </c>
+      <c r="H8" s="2">
+        <v>19.2</v>
+      </c>
+      <c r="I8" s="2">
+        <v>0.6</v>
+      </c>
+      <c r="J8" s="2">
+        <v>1.5</v>
+      </c>
+      <c r="K8" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" spans="2:11" ht="19.8" x14ac:dyDescent="0.3">
+      <c r="B9" s="7"/>
+      <c r="C9" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E9" s="2">
+        <v>42.427</v>
+      </c>
+      <c r="F9" s="2">
+        <v>1.6326000000000001</v>
+      </c>
+      <c r="G9" s="2">
+        <v>1975</v>
+      </c>
+      <c r="H9" s="2">
+        <v>21.1</v>
+      </c>
+      <c r="I9" s="2">
+        <v>0.6</v>
+      </c>
+      <c r="J9" s="2">
+        <v>1.7</v>
+      </c>
+      <c r="K9" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="10" spans="2:11" ht="19.8" x14ac:dyDescent="0.3">
+      <c r="B10" s="7"/>
+      <c r="C10" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E10" s="2">
+        <v>42.425400000000003</v>
+      </c>
+      <c r="F10" s="2">
+        <v>1.6357999999999999</v>
+      </c>
+      <c r="G10" s="2">
+        <v>1933</v>
+      </c>
+      <c r="H10" s="2">
+        <v>18</v>
+      </c>
+      <c r="I10" s="2">
+        <v>0.6</v>
+      </c>
+      <c r="J10" s="2">
+        <v>1.5</v>
+      </c>
+      <c r="K10" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="11" spans="2:11" ht="19.8" x14ac:dyDescent="0.3">
+      <c r="B11" s="7"/>
+      <c r="C11" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E11" s="2">
+        <v>42.423999999999999</v>
+      </c>
+      <c r="F11" s="2">
+        <v>1.6389</v>
+      </c>
+      <c r="G11" s="2">
+        <v>1912</v>
+      </c>
+      <c r="H11" s="2">
+        <v>17</v>
+      </c>
+      <c r="I11" s="2">
+        <v>0.9</v>
+      </c>
+      <c r="J11" s="2">
+        <v>1.6</v>
+      </c>
+      <c r="K11" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="12" spans="2:11" ht="19.8" x14ac:dyDescent="0.3">
+      <c r="B12" s="7"/>
+      <c r="C12" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E12" s="2">
+        <v>42.423699999999997</v>
+      </c>
+      <c r="F12" s="2">
+        <v>1.6395</v>
+      </c>
+      <c r="G12" s="2">
+        <v>1908</v>
+      </c>
+      <c r="H12" s="2">
+        <v>19.2</v>
+      </c>
+      <c r="I12" s="2">
+        <v>0.6</v>
+      </c>
+      <c r="J12" s="2">
+        <v>1.5</v>
+      </c>
+      <c r="K12" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="13" spans="2:11" ht="19.8" x14ac:dyDescent="0.3">
+      <c r="B13" s="7"/>
+      <c r="C13" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="G4" s="2">
-        <v>25</v>
-      </c>
-      <c r="H4" s="2">
-        <v>1.4999999999999999E-2</v>
-      </c>
-      <c r="I4" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="5" spans="2:9" ht="19.8" x14ac:dyDescent="0.3">
-      <c r="B5" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D5" s="2">
-        <v>60</v>
-      </c>
-      <c r="E5" s="2">
-        <v>20</v>
-      </c>
-      <c r="F5" s="2">
-        <v>20</v>
-      </c>
-      <c r="G5" s="2">
-        <v>20</v>
-      </c>
-      <c r="H5" s="2">
-        <v>1.0999999999999999E-2</v>
-      </c>
-      <c r="I5" s="2" t="s">
+      <c r="D13" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E13" s="2">
+        <v>42.422899999999998</v>
+      </c>
+      <c r="F13" s="2">
+        <v>1.6415</v>
+      </c>
+      <c r="G13" s="2">
+        <v>1896</v>
+      </c>
+      <c r="H13" s="2">
+        <v>16.7</v>
+      </c>
+      <c r="I13" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="J13" s="2">
+        <v>1.4</v>
+      </c>
+      <c r="K13" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="14" spans="2:11" ht="19.8" x14ac:dyDescent="0.3">
+      <c r="B14" s="7"/>
+      <c r="C14" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E14" s="2">
+        <v>42.4223</v>
+      </c>
+      <c r="F14" s="2">
+        <v>1.6447000000000001</v>
+      </c>
+      <c r="G14" s="2">
+        <v>1863</v>
+      </c>
+      <c r="H14" s="2">
+        <v>17.100000000000001</v>
+      </c>
+      <c r="I14" s="2">
+        <v>0.6</v>
+      </c>
+      <c r="J14" s="2">
+        <v>1.4</v>
+      </c>
+      <c r="K14" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="15" spans="2:11" ht="19.8" x14ac:dyDescent="0.3">
+      <c r="B15" s="7"/>
+      <c r="C15" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E15" s="2">
+        <v>42.421500000000002</v>
+      </c>
+      <c r="F15" s="2">
+        <v>1.6480999999999999</v>
+      </c>
+      <c r="G15" s="2">
+        <v>1820</v>
+      </c>
+      <c r="H15" s="2">
+        <v>20.7</v>
+      </c>
+      <c r="I15" s="2">
+        <v>0.9</v>
+      </c>
+      <c r="J15" s="2">
+        <v>1.7</v>
+      </c>
+      <c r="K15" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="16" spans="2:11" ht="19.8" x14ac:dyDescent="0.3">
+      <c r="B16" s="7"/>
+      <c r="C16" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E16" s="2">
+        <v>42.421300000000002</v>
+      </c>
+      <c r="F16" s="2">
+        <v>1.6489</v>
+      </c>
+      <c r="G16" s="2">
+        <v>1808</v>
+      </c>
+      <c r="H16" s="2">
+        <v>22.4</v>
+      </c>
+      <c r="I16" s="2">
+        <v>0.7</v>
+      </c>
+      <c r="J16" s="2">
+        <v>1.8</v>
+      </c>
+      <c r="K16" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="17" spans="2:11" ht="19.8" x14ac:dyDescent="0.3">
+      <c r="B17" s="7"/>
+      <c r="C17" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="E17" s="2">
+        <v>42.421300000000002</v>
+      </c>
+      <c r="F17" s="2">
+        <v>1.6495</v>
+      </c>
+      <c r="G17" s="2">
+        <v>1809</v>
+      </c>
+      <c r="H17" s="2">
+        <v>18.2</v>
+      </c>
+      <c r="I17" s="2">
+        <v>1.6</v>
+      </c>
+      <c r="J17" s="2">
+        <v>2.1</v>
+      </c>
+      <c r="K17" s="2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="2:9" ht="19.8" x14ac:dyDescent="0.3">
-      <c r="B6" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D6" s="2">
-        <v>275</v>
-      </c>
-      <c r="E6" s="2">
-        <v>199</v>
-      </c>
-      <c r="F6" s="2">
-        <v>51</v>
-      </c>
-      <c r="G6" s="2">
-        <v>25</v>
-      </c>
-      <c r="H6" s="2">
-        <v>0.42099999999999999</v>
-      </c>
-      <c r="I6" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="7" spans="2:9" ht="19.8" x14ac:dyDescent="0.3">
-      <c r="B7" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D7" s="2">
-        <v>130</v>
-      </c>
-      <c r="E7" s="2">
-        <v>57</v>
-      </c>
-      <c r="F7" s="2">
-        <v>33</v>
-      </c>
-      <c r="G7" s="2">
+    <row r="18" spans="2:11" ht="20.399999999999999" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B18" s="8"/>
+      <c r="C18" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="E18" s="1">
+        <v>42.420900000000003</v>
+      </c>
+      <c r="F18" s="1">
+        <v>1.6498999999999999</v>
+      </c>
+      <c r="G18" s="1">
+        <v>1805</v>
+      </c>
+      <c r="H18" s="1">
+        <v>17.3</v>
+      </c>
+      <c r="I18" s="1">
+        <v>1.7</v>
+      </c>
+      <c r="J18" s="1">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="K18" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="H7" s="2">
-        <v>0.28100000000000003</v>
-      </c>
-      <c r="I7" s="2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="8" spans="2:9" ht="19.8" x14ac:dyDescent="0.3">
-      <c r="B8" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D8" s="2">
-        <v>100</v>
-      </c>
-      <c r="E8" s="2">
-        <v>37</v>
-      </c>
-      <c r="F8" s="2">
+    </row>
+    <row r="19" spans="2:11" ht="19.8" x14ac:dyDescent="0.3">
+      <c r="B19" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E19" s="2">
+        <v>43.086300000000001</v>
+      </c>
+      <c r="F19" s="2">
+        <v>-8.6999999999999994E-2</v>
+      </c>
+      <c r="G19" s="2">
+        <v>776</v>
+      </c>
+      <c r="H19" s="2">
+        <v>19.7</v>
+      </c>
+      <c r="I19" s="2">
+        <v>3.2</v>
+      </c>
+      <c r="J19" s="2">
+        <v>3.6</v>
+      </c>
+      <c r="K19" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="20" spans="2:11" ht="19.8" x14ac:dyDescent="0.3">
+      <c r="B20" s="7"/>
+      <c r="C20" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E20" s="2">
+        <v>43.085799999999999</v>
+      </c>
+      <c r="F20" s="2">
+        <v>-8.7999999999999995E-2</v>
+      </c>
+      <c r="G20" s="2">
+        <v>778</v>
+      </c>
+      <c r="H20" s="2">
+        <v>59</v>
+      </c>
+      <c r="I20" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="J20" s="2">
+        <v>43</v>
+      </c>
+      <c r="K20" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="21" spans="2:11" ht="19.8" x14ac:dyDescent="0.3">
+      <c r="B21" s="7"/>
+      <c r="C21" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E21" s="2">
+        <v>43.086199999999998</v>
+      </c>
+      <c r="F21" s="2">
+        <v>-8.7300000000000003E-2</v>
+      </c>
+      <c r="G21" s="2">
+        <v>779</v>
+      </c>
+      <c r="H21" s="2">
+        <v>17.2</v>
+      </c>
+      <c r="I21" s="2">
+        <v>3.3</v>
+      </c>
+      <c r="J21" s="2">
+        <v>3.5</v>
+      </c>
+      <c r="K21" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="22" spans="2:11" ht="19.8" x14ac:dyDescent="0.3">
+      <c r="B22" s="7"/>
+      <c r="C22" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E22" s="2">
+        <v>43.086500000000001</v>
+      </c>
+      <c r="F22" s="2">
+        <v>-8.6699999999999999E-2</v>
+      </c>
+      <c r="G22" s="2">
+        <v>781</v>
+      </c>
+      <c r="H22" s="2">
+        <v>16.8</v>
+      </c>
+      <c r="I22" s="2">
+        <v>3</v>
+      </c>
+      <c r="J22" s="2">
+        <v>3.3</v>
+      </c>
+      <c r="K22" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="23" spans="2:11" ht="57.6" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="B23" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="G8" s="2">
-        <v>13</v>
-      </c>
-      <c r="H8" s="2">
-        <v>0.111</v>
-      </c>
-      <c r="I8" s="2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="9" spans="2:9" ht="19.8" x14ac:dyDescent="0.3">
-      <c r="B9" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="C9" s="4"/>
-      <c r="D9" s="4"/>
-      <c r="E9" s="4"/>
-      <c r="F9" s="4"/>
-      <c r="G9" s="4"/>
-      <c r="H9" s="4"/>
-      <c r="I9" s="4"/>
+      <c r="C23" s="9"/>
+      <c r="D23" s="9"/>
+      <c r="E23" s="9"/>
+      <c r="F23" s="9"/>
+      <c r="G23" s="9"/>
+      <c r="H23" s="9"/>
+      <c r="I23" s="9"/>
+      <c r="J23" s="9"/>
+      <c r="K23" s="9"/>
     </row>
   </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="B2:I2"/>
-    <mergeCell ref="B9:I9"/>
+  <mergeCells count="5">
+    <mergeCell ref="B2:K2"/>
+    <mergeCell ref="B4:B6"/>
+    <mergeCell ref="B7:B18"/>
+    <mergeCell ref="B19:B22"/>
+    <mergeCell ref="B23:K23"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -898,7 +1560,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -910,7 +1572,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>

--- a/tables/Table_1.xlsx
+++ b/tables/Table_1.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23929"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\44797\Desktop\Repo\moraine-paper-2020\tables\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\44797\Desktop\Repo\moraine-crest-or-slope\tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA41EFC3-F081-4641-B52A-445AF3261364}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2D03D51-AAF3-4DCA-BA09-611B31BB189F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -52,17 +52,25 @@
   </si>
   <si>
     <r>
-      <t>SH R</t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
+      <t>Outer Pleta Naua</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="Gill Sans MT"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve"> </t>
+      <t>c</t>
+    </r>
+  </si>
+  <si>
+    <t>OPN01</t>
+  </si>
+  <si>
+    <r>
+      <t>10</t>
     </r>
     <r>
       <rPr>
@@ -71,7 +79,107 @@
         <rFont val="Gill Sans MT"/>
         <family val="2"/>
       </rPr>
-      <t>± SEM</t>
+      <t>Be</t>
+    </r>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>OPN02</t>
+  </si>
+  <si>
+    <t>51.68 ± 0.5</t>
+  </si>
+  <si>
+    <t>OPN03</t>
+  </si>
+  <si>
+    <t>SAL-01</t>
+  </si>
+  <si>
+    <t>47.57 ± 0.83</t>
+  </si>
+  <si>
+    <t>SAL-02</t>
+  </si>
+  <si>
+    <t>45.07 ± 0.84</t>
+  </si>
+  <si>
+    <t>SAL-03</t>
+  </si>
+  <si>
+    <t>44.07 ± 0.82</t>
+  </si>
+  <si>
+    <t>SAL-04</t>
+  </si>
+  <si>
+    <t>47.57 ± 0.84</t>
+  </si>
+  <si>
+    <t>SAL-05</t>
+  </si>
+  <si>
+    <t>48.9 ± 0.77</t>
+  </si>
+  <si>
+    <t>SAL-06</t>
+  </si>
+  <si>
+    <t>44.53 ± 0.74</t>
+  </si>
+  <si>
+    <t>SAL-07</t>
+  </si>
+  <si>
+    <t>47.43 ± 0.96</t>
+  </si>
+  <si>
+    <t>SAL-08</t>
+  </si>
+  <si>
+    <t>47.7 ± 0.9</t>
+  </si>
+  <si>
+    <t>SAL-09</t>
+  </si>
+  <si>
+    <t>44.77 ± 0.8</t>
+  </si>
+  <si>
+    <t>SAL-10</t>
+  </si>
+  <si>
+    <t>43.03 ± 0.95</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PIR-11-13 </t>
+  </si>
+  <si>
+    <r>
+      <t>36</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Gill Sans MT"/>
+        <family val="2"/>
+      </rPr>
+      <t>Cl</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">PIR-11-14 </t>
+  </si>
+  <si>
+    <t>47.6 ± 0.83</t>
+  </si>
+  <si>
+    <r>
+      <t>Soum d'Ech</t>
     </r>
     <r>
       <rPr>
@@ -81,12 +189,21 @@
         <rFont val="Gill Sans MT"/>
         <family val="2"/>
       </rPr>
-      <t>b</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Outer Pleta Naua</t>
+      <t>e</t>
+    </r>
+  </si>
+  <si>
+    <t>ECH01</t>
+  </si>
+  <si>
+    <t>42.43 ± 0.98</t>
+  </si>
+  <si>
+    <t>ECH02</t>
+  </si>
+  <si>
+    <r>
+      <t>43.2</t>
     </r>
     <r>
       <rPr>
@@ -96,157 +213,6 @@
         <rFont val="Gill Sans MT"/>
         <family val="2"/>
       </rPr>
-      <t>c</t>
-    </r>
-  </si>
-  <si>
-    <t>OPN01</t>
-  </si>
-  <si>
-    <r>
-      <t>10</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Gill Sans MT"/>
-        <family val="2"/>
-      </rPr>
-      <t>Be</t>
-    </r>
-  </si>
-  <si>
-    <t>-</t>
-  </si>
-  <si>
-    <t>OPN02</t>
-  </si>
-  <si>
-    <t>51.68 ± 0.5</t>
-  </si>
-  <si>
-    <t>OPN03</t>
-  </si>
-  <si>
-    <t>SAL-01</t>
-  </si>
-  <si>
-    <t>47.57 ± 0.83</t>
-  </si>
-  <si>
-    <t>SAL-02</t>
-  </si>
-  <si>
-    <t>45.07 ± 0.84</t>
-  </si>
-  <si>
-    <t>SAL-03</t>
-  </si>
-  <si>
-    <t>44.07 ± 0.82</t>
-  </si>
-  <si>
-    <t>SAL-04</t>
-  </si>
-  <si>
-    <t>47.57 ± 0.84</t>
-  </si>
-  <si>
-    <t>SAL-05</t>
-  </si>
-  <si>
-    <t>48.9 ± 0.77</t>
-  </si>
-  <si>
-    <t>SAL-06</t>
-  </si>
-  <si>
-    <t>44.53 ± 0.74</t>
-  </si>
-  <si>
-    <t>SAL-07</t>
-  </si>
-  <si>
-    <t>47.43 ± 0.96</t>
-  </si>
-  <si>
-    <t>SAL-08</t>
-  </si>
-  <si>
-    <t>47.7 ± 0.9</t>
-  </si>
-  <si>
-    <t>SAL-09</t>
-  </si>
-  <si>
-    <t>44.77 ± 0.8</t>
-  </si>
-  <si>
-    <t>SAL-10</t>
-  </si>
-  <si>
-    <t>43.03 ± 0.95</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PIR-11-13 </t>
-  </si>
-  <si>
-    <r>
-      <t>36</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Gill Sans MT"/>
-        <family val="2"/>
-      </rPr>
-      <t>Cl</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">PIR-11-14 </t>
-  </si>
-  <si>
-    <t>47.6 ± 0.83</t>
-  </si>
-  <si>
-    <r>
-      <t>Soum d'Ech</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="superscript"/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Gill Sans MT"/>
-        <family val="2"/>
-      </rPr>
-      <t>e</t>
-    </r>
-  </si>
-  <si>
-    <t>ECH01</t>
-  </si>
-  <si>
-    <t>42.43 ± 0.98</t>
-  </si>
-  <si>
-    <t>ECH02</t>
-  </si>
-  <si>
-    <r>
-      <t>43.2</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="superscript"/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Gill Sans MT"/>
-        <family val="2"/>
-      </rPr>
       <t>f</t>
     </r>
   </si>
@@ -261,122 +227,6 @@
   </si>
   <si>
     <t>38.77 ± 1.05</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <vertAlign val="superscript"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Gill Sans MT"/>
-        <family val="2"/>
-      </rPr>
-      <t>a</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Gill Sans MT"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> Full sample information used for exposure age calculation is provided in the Supplementary Information or is available on GitHub: https://github.com/matt-tomkins/moraine-paper-2020, </t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="superscript"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Gill Sans MT"/>
-        <family val="2"/>
-      </rPr>
-      <t>b</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Gill Sans MT"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> Mean of 30 SH R-values ± the Standard Error of the Mean, </t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="superscript"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Gill Sans MT"/>
-        <family val="2"/>
-      </rPr>
-      <t>c</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Gill Sans MT"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> OPN samples from Pallàs et al. (2006), </t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="superscript"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Gill Sans MT"/>
-        <family val="2"/>
-      </rPr>
-      <t>d</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Gill Sans MT"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> PIR samples from Palacios et al. (2015), </t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="superscript"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Gill Sans MT"/>
-        <family val="2"/>
-      </rPr>
-      <t>e</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Gill Sans MT"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> ECH samples from Rodés (2008), </t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="superscript"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Gill Sans MT"/>
-        <family val="2"/>
-      </rPr>
-      <t>f</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Gill Sans MT"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> Measurement error, see Rodés (2008).  </t>
-    </r>
   </si>
   <si>
     <r>
@@ -424,6 +274,175 @@
         <family val="2"/>
       </rPr>
       <t>a</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">SH </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Gill Sans MT"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">R </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Gill Sans MT"/>
+        <family val="2"/>
+      </rPr>
+      <t>± SEM</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Gill Sans MT"/>
+        <family val="2"/>
+      </rPr>
+      <t>b</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Gill Sans MT"/>
+        <family val="2"/>
+      </rPr>
+      <t>a</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Gill Sans MT"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> Full sample information used for exposure age calculation is provided in the Supplementary Information or is available on GitHub: https://github.com/matt-tomkins/moraine-paper-2020, </t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Gill Sans MT"/>
+        <family val="2"/>
+      </rPr>
+      <t>b</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Gill Sans MT"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> Mean of 30 SH </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Gill Sans MT"/>
+        <family val="2"/>
+      </rPr>
+      <t>R</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Gill Sans MT"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">-values ± the Standard Error of the Mean, </t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Gill Sans MT"/>
+        <family val="2"/>
+      </rPr>
+      <t>c</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Gill Sans MT"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> OPN samples from Pallàs et al. (2006), </t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Gill Sans MT"/>
+        <family val="2"/>
+      </rPr>
+      <t>d</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Gill Sans MT"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> PIR samples from Palacios et al. (2015), </t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Gill Sans MT"/>
+        <family val="2"/>
+      </rPr>
+      <t>e</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Gill Sans MT"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> ECH samples from Rodés (2008), </t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Gill Sans MT"/>
+        <family val="2"/>
+      </rPr>
+      <t>f</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Gill Sans MT"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> Measurement error, see Rodés (2008).  </t>
     </r>
   </si>
 </sst>
@@ -431,7 +450,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -480,6 +499,13 @@
     </font>
     <font>
       <vertAlign val="superscript"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Gill Sans MT"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <i/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Gill Sans MT"/>
@@ -894,7 +920,7 @@
   <dimension ref="B2:K23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="G27" sqref="G27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -912,7 +938,7 @@
   <sheetData>
     <row r="2" spans="2:11" ht="20.399999999999999" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B2" s="5" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C2" s="5"/>
       <c r="D2" s="5"/>
@@ -953,18 +979,18 @@
         <v>8</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>9</v>
+        <v>51</v>
       </c>
     </row>
     <row r="4" spans="2:11" ht="19.8" x14ac:dyDescent="0.3">
       <c r="B4" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="D4" s="3" t="s">
         <v>11</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>12</v>
       </c>
       <c r="E4" s="2">
         <v>42.636499999999998</v>
@@ -985,16 +1011,16 @@
         <v>1.6</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5" spans="2:11" ht="19.8" x14ac:dyDescent="0.3">
       <c r="B5" s="7"/>
       <c r="C5" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E5" s="2">
         <v>42.636499999999998</v>
@@ -1015,16 +1041,16 @@
         <v>2</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="6" spans="2:11" ht="20.399999999999999" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B6" s="8"/>
       <c r="C6" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E6" s="1">
         <v>42.636499999999998</v>
@@ -1045,18 +1071,18 @@
         <v>1.5</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="7" spans="2:11" ht="19.8" x14ac:dyDescent="0.3">
       <c r="B7" s="6" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E7" s="2">
         <v>42.4283</v>
@@ -1077,16 +1103,16 @@
         <v>1.5</v>
       </c>
       <c r="K7" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="8" spans="2:11" ht="19.8" x14ac:dyDescent="0.3">
       <c r="B8" s="7"/>
       <c r="C8" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E8" s="2">
         <v>42.427300000000002</v>
@@ -1107,16 +1133,16 @@
         <v>1.5</v>
       </c>
       <c r="K8" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="9" spans="2:11" ht="19.8" x14ac:dyDescent="0.3">
       <c r="B9" s="7"/>
       <c r="C9" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E9" s="2">
         <v>42.427</v>
@@ -1137,16 +1163,16 @@
         <v>1.7</v>
       </c>
       <c r="K9" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="10" spans="2:11" ht="19.8" x14ac:dyDescent="0.3">
       <c r="B10" s="7"/>
       <c r="C10" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E10" s="2">
         <v>42.425400000000003</v>
@@ -1167,16 +1193,16 @@
         <v>1.5</v>
       </c>
       <c r="K10" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="11" spans="2:11" ht="19.8" x14ac:dyDescent="0.3">
       <c r="B11" s="7"/>
       <c r="C11" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E11" s="2">
         <v>42.423999999999999</v>
@@ -1197,16 +1223,16 @@
         <v>1.6</v>
       </c>
       <c r="K11" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="12" spans="2:11" ht="19.8" x14ac:dyDescent="0.3">
       <c r="B12" s="7"/>
       <c r="C12" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E12" s="2">
         <v>42.423699999999997</v>
@@ -1227,16 +1253,16 @@
         <v>1.5</v>
       </c>
       <c r="K12" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="13" spans="2:11" ht="19.8" x14ac:dyDescent="0.3">
       <c r="B13" s="7"/>
       <c r="C13" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E13" s="2">
         <v>42.422899999999998</v>
@@ -1257,16 +1283,16 @@
         <v>1.4</v>
       </c>
       <c r="K13" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="14" spans="2:11" ht="19.8" x14ac:dyDescent="0.3">
       <c r="B14" s="7"/>
       <c r="C14" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E14" s="2">
         <v>42.4223</v>
@@ -1287,16 +1313,16 @@
         <v>1.4</v>
       </c>
       <c r="K14" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="15" spans="2:11" ht="19.8" x14ac:dyDescent="0.3">
       <c r="B15" s="7"/>
       <c r="C15" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E15" s="2">
         <v>42.421500000000002</v>
@@ -1317,16 +1343,16 @@
         <v>1.7</v>
       </c>
       <c r="K15" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="16" spans="2:11" ht="19.8" x14ac:dyDescent="0.3">
       <c r="B16" s="7"/>
       <c r="C16" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E16" s="2">
         <v>42.421300000000002</v>
@@ -1347,16 +1373,16 @@
         <v>1.8</v>
       </c>
       <c r="K16" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="17" spans="2:11" ht="19.8" x14ac:dyDescent="0.3">
       <c r="B17" s="7"/>
       <c r="C17" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D17" s="3" t="s">
         <v>37</v>
-      </c>
-      <c r="D17" s="3" t="s">
-        <v>38</v>
       </c>
       <c r="E17" s="2">
         <v>42.421300000000002</v>
@@ -1377,16 +1403,16 @@
         <v>2.1</v>
       </c>
       <c r="K17" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="18" spans="2:11" ht="20.399999999999999" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B18" s="8"/>
       <c r="C18" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E18" s="1">
         <v>42.420900000000003</v>
@@ -1407,18 +1433,18 @@
         <v>2.2000000000000002</v>
       </c>
       <c r="K18" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="19" spans="2:11" ht="19.8" x14ac:dyDescent="0.3">
       <c r="B19" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="C19" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="C19" s="2" t="s">
-        <v>42</v>
-      </c>
       <c r="D19" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E19" s="2">
         <v>43.086300000000001</v>
@@ -1439,16 +1465,16 @@
         <v>3.6</v>
       </c>
       <c r="K19" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="20" spans="2:11" ht="19.8" x14ac:dyDescent="0.3">
       <c r="B20" s="7"/>
       <c r="C20" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E20" s="2">
         <v>43.085799999999999</v>
@@ -1463,22 +1489,22 @@
         <v>59</v>
       </c>
       <c r="I20" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J20" s="2">
         <v>43</v>
       </c>
       <c r="K20" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="21" spans="2:11" ht="19.8" x14ac:dyDescent="0.3">
       <c r="B21" s="7"/>
       <c r="C21" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E21" s="2">
         <v>43.086199999999998</v>
@@ -1499,16 +1525,16 @@
         <v>3.5</v>
       </c>
       <c r="K21" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="22" spans="2:11" ht="19.8" x14ac:dyDescent="0.3">
       <c r="B22" s="7"/>
       <c r="C22" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E22" s="2">
         <v>43.086500000000001</v>
@@ -1529,12 +1555,12 @@
         <v>3.3</v>
       </c>
       <c r="K22" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="23" spans="2:11" ht="57.6" customHeight="1" x14ac:dyDescent="0.5">
       <c r="B23" s="9" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C23" s="9"/>
       <c r="D23" s="9"/>
